--- a/従業員リスト設計書.xlsx
+++ b/従業員リスト設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\employee_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4794B3-2705-4AE4-9596-8F4C0FECA409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACBFF15-FA88-4F6E-8A1C-2050AB225C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B29AEF4A-062F-46FC-A24C-EEDECFEB5DF5}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/従業員リスト設計書.xlsx
+++ b/従業員リスト設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\employee_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACBFF15-FA88-4F6E-8A1C-2050AB225C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4794B3-2705-4AE4-9596-8F4C0FECA409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B29AEF4A-062F-46FC-A24C-EEDECFEB5DF5}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
